--- a/B.xlsx
+++ b/B.xlsx
@@ -76,11 +76,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -492,16 +491,16 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.837398727651834e-06</v>
+        <v>1.397244373967012e-10</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.837398726910681e-06</v>
+        <v>1.397240039540603e-10</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-5.369073235733425e-07</v>
+        <v>-4.484665166410507e-09</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-5.369073235204029e-07</v>
+        <v>-4.484665272289626e-09</v>
       </c>
     </row>
     <row r="3">
@@ -511,16 +510,16 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.101027755418304e-05</v>
+        <v>5.152354549608354e-11</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-1.101027755193566e-05</v>
+        <v>-5.15227658703524e-11</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.450789496009003e-06</v>
+        <v>-8.061005447868466e-09</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-2.450789495448e-06</v>
+        <v>8.061006599490805e-09</v>
       </c>
     </row>
     <row r="4">
@@ -530,16 +529,16 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-1.303548935460697e-05</v>
+        <v>-3.469446951953614e-11</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-1.303548935460697e-05</v>
+        <v>-3.469446951953614e-11</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.761715773263006e-06</v>
+        <v>6.83481049534862e-09</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.761715773263006e-06</v>
+        <v>6.83481049534862e-09</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +548,16 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-8.595688176326164e-05</v>
+        <v>-8.694586482933575e-10</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>8.595688196126632e-05</v>
+        <v>8.694270496828558e-10</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-2.224311053833951e-05</v>
+        <v>-3.313799289393956e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.224311071556211e-05</v>
+        <v>3.313795850420653e-08</v>
       </c>
     </row>
     <row r="6">
@@ -568,16 +567,16 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.0003088423691147573</v>
+        <v>-1.876788720034895e-08</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.0003088423690740998</v>
+        <v>-1.876790355867275e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.0003001159658812532</v>
+        <v>-3.652095443572723e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.0003001159658558422</v>
+        <v>-3.652095439708135e-06</v>
       </c>
     </row>
     <row r="7">
@@ -587,16 +586,16 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.0003351003205494062</v>
+        <v>-3.653529806620732e-08</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.0003351003206120265</v>
+        <v>3.653526512992346e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.0002739588522755524</v>
+        <v>-6.708911832358813e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.0002739588523306224</v>
+        <v>6.708911841012671e-06</v>
       </c>
     </row>
     <row r="8">
@@ -606,16 +605,16 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.0007181708972970485</v>
+        <v>3.999632512954518e-08</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.0001683946907561412</v>
+        <v>8.973640473259707e-13</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.0001506675449008434</v>
+        <v>-2.122941812300615e-10</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.0001261705119993007</v>
+        <v>1.751416723100415e-10</v>
       </c>
     </row>
     <row r="9">
@@ -625,16 +624,16 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.0003422323781245191</v>
+        <v>-1.963188279622116e-12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-8.462693656193128e-05</v>
+        <v>4.752045085637512e-13</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-8.481137238900219e-05</v>
+        <v>-1.543888855475822e-10</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1.767122445551703e-06</v>
+        <v>1.019253795400607e-10</v>
       </c>
     </row>
     <row r="10">
@@ -644,16 +643,16 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.0003377599604083986</v>
+        <v>-1.131215434964353e-13</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>8.36609765568052e-05</v>
+        <v>6.565901208504511e-15</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>8.692487005255815e-05</v>
+        <v>-2.172551718702425e-12</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-2.513891709816224e-06</v>
+        <v>1.319809822891876e-12</v>
       </c>
     </row>
     <row r="11">
@@ -663,16 +662,16 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.0001495924389762149</v>
+        <v>-2.122530715588456e-10</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.0001250089114136836</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>0.003485684434725473</v>
+        <v>1.751074454406816e-10</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>3.9920168576845e-05</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.0001156108117852467</v>
+        <v>3.43807944665698e-08</v>
       </c>
     </row>
     <row r="12">
@@ -682,16 +681,16 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.0001683946908239038</v>
+        <v>8.973641830352899e-13</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.0007181708973512586</v>
+        <v>3.999632512978428e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.0001261705120399583</v>
+        <v>1.751416721064775e-10</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.0001506675447856469</v>
+        <v>-2.122941815305607e-10</v>
       </c>
     </row>
     <row r="13">
@@ -701,16 +700,16 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-8.462693583009481e-05</v>
+        <v>4.752069901055889e-13</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.000342232378531095</v>
+        <v>-1.963189106802728e-12</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.767122147396105e-06</v>
+        <v>1.019253778856994e-10</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-8.481137135901012e-05</v>
+        <v>-1.543888872019434e-10</v>
       </c>
     </row>
     <row r="14">
@@ -720,16 +719,16 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>8.366097699048607e-05</v>
+        <v>6.565914133201582e-15</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.0003377599603812936</v>
+        <v>-1.131215241093897e-13</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-2.513891574290952e-06</v>
+        <v>1.319809829354225e-12</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>8.692487056755419e-05</v>
+        <v>-2.172551712240076e-12</v>
       </c>
     </row>
     <row r="15">
@@ -739,16 +738,16 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.0001250089114441768</v>
+        <v>1.751075707585444e-10</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.0001495924389914615</v>
+        <v>-2.122530599783171e-10</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.0001156108117598357</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>0.003485684434806788</v>
+        <v>3.438079435200528e-08</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>3.992016857682142e-05</v>
       </c>
     </row>
     <row r="16">
@@ -757,17 +756,17 @@
           <t>root_x_v</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>0.001418699363824223</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>0.001418699363444752</v>
+      <c r="B16" t="n">
+        <v>6.986221869835062e-08</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.986200185791613e-08</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0002684536617796832</v>
+        <v>-2.242332582702328e-06</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0002684536617661307</v>
+        <v>-2.242332636912437e-06</v>
       </c>
     </row>
     <row r="17">
@@ -776,17 +775,17 @@
           <t>root_y_v</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>0.005505138777091518</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>-0.005505138775967831</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>0.001225394748004502</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <v>-0.001225394747724</v>
+      <c r="B17" t="n">
+        <v>2.576177274804177e-08</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.57613829351762e-08</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-4.030502723934233e-06</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.030503299745403e-06</v>
       </c>
     </row>
     <row r="18">
@@ -795,17 +794,17 @@
           <t>root_z_v</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>-0.006517747417299213</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>-0.006517747406890873</v>
+      <c r="B18" t="n">
+        <v>-1.681275178197381e-08</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.681273515895222e-08</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0008808558448619719</v>
+        <v>3.417644708441301e-06</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0008808558535355893</v>
+        <v>3.417644704629653e-06</v>
       </c>
     </row>
     <row r="19">
@@ -814,17 +813,17 @@
           <t>root_rx_v</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>-0.04298039730747153</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>0.04298039740647423</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>-0.01112315473210894</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <v>0.01112315482072056</v>
+      <c r="B19" t="n">
+        <v>-4.347257215615812e-07</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.34709922259578e-07</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1.656833491067373e-05</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.656831771580636e-05</v>
       </c>
     </row>
     <row r="20">
@@ -833,17 +832,17 @@
           <t>root_ry_v</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>-0.1544211845573226</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>-0.1544211845356386</v>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>-0.1500579829413415</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <v>-0.1500579829283311</v>
+      <c r="B20" t="n">
+        <v>-9.38394360047029e-06</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-9.383951759091638e-06</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>-0.001826047721776962</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>-0.001826047719852503</v>
       </c>
     </row>
     <row r="21">
@@ -852,17 +851,17 @@
           <t>root_rz_v</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>-0.1675496584220518</v>
-      </c>
-      <c r="C21" s="4" t="n">
-        <v>0.1675496584533608</v>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>-0.136979296268829</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <v>0.1369792962963629</v>
+      <c r="B21" t="n">
+        <v>-1.826764911883692e-05</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.826763265069187e-05</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>-0.003354455919446954</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>0.00335445592377388</v>
       </c>
     </row>
     <row r="22">
@@ -871,17 +870,17 @@
           <t>left_thigh_v</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>0.359085448650015</v>
-      </c>
-      <c r="C22" s="4" t="n">
-        <v>0.08419734538051005</v>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>-0.07533377244933748</v>
-      </c>
-      <c r="E22" s="4" t="n">
-        <v>0.06308525599824089</v>
+      <c r="B22" t="n">
+        <v>1.999816256477234e-05</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.486820243221449e-10</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.061470906154573e-07</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8.757083615415481e-08</v>
       </c>
     </row>
     <row r="23">
@@ -890,17 +889,17 @@
           <t>left_calf_v</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>-0.1711161890655122</v>
-      </c>
-      <c r="C23" s="4" t="n">
-        <v>-0.04231346828476035</v>
-      </c>
-      <c r="D23" s="4" t="n">
-        <v>-0.04240568618474327</v>
+      <c r="B23" t="n">
+        <v>-9.81594295321013e-10</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.37602059067251e-10</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-7.719444293922723e-08</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0008835612241853141</v>
+        <v>5.096268976010417e-08</v>
       </c>
     </row>
     <row r="24">
@@ -909,17 +908,17 @@
           <t>left_rod_v</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
-        <v>0.1688799801946583</v>
-      </c>
-      <c r="C24" s="4" t="n">
-        <v>0.041830488267669</v>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>0.04346243502595382</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <v>-0.001256945866834336</v>
+      <c r="B24" t="n">
+        <v>-5.656077063669371e-11</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.282950811047409e-12</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-1.086275861341616e-09</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6.599049098432757e-10</v>
       </c>
     </row>
     <row r="25">
@@ -928,17 +927,17 @@
           <t>left_wheel_v</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
-        <v>-0.07479621948799225</v>
-      </c>
-      <c r="C25" s="4" t="n">
-        <v>0.06250445570669949</v>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>1.742842217362581</v>
-      </c>
-      <c r="E25" s="4" t="n">
-        <v>0.05780540589337552</v>
+      <c r="B25" t="n">
+        <v>-1.061265356718893e-07</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8.755372279975015e-08</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>0.01996008428842241</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.719039723335273e-05</v>
       </c>
     </row>
     <row r="26">
@@ -947,17 +946,17 @@
           <t>right_thigh_v</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
-        <v>0.08419734541173507</v>
-      </c>
-      <c r="C26" s="4" t="n">
-        <v>0.3590854486743011</v>
-      </c>
-      <c r="D26" s="4" t="n">
-        <v>0.06308525602252701</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <v>-0.07533377239382633</v>
+      <c r="B26" t="n">
+        <v>4.486820904965939e-10</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.999816256489311e-05</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8.757083605323877e-08</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1.061470907643498e-07</v>
       </c>
     </row>
     <row r="27">
@@ -966,17 +965,17 @@
           <t>right_calf_v</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
-        <v>-0.04231346791006008</v>
-      </c>
-      <c r="C27" s="4" t="n">
-        <v>-0.1711161892598012</v>
+      <c r="B27" t="n">
+        <v>2.376033296166719e-10</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-9.815947188374866e-10</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0008835610715296482</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <v>-0.04240568567126513</v>
+        <v>5.096268891307122e-08</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-7.719444378626017e-08</v>
       </c>
     </row>
     <row r="28">
@@ -985,17 +984,17 @@
           <t>right_rod_v</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
-        <v>0.0418304884897136</v>
-      </c>
-      <c r="C28" s="4" t="n">
-        <v>0.1688799801946583</v>
-      </c>
-      <c r="D28" s="4" t="n">
-        <v>-0.001256945797445397</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>0.043462435275754</v>
+      <c r="B28" t="n">
+        <v>3.282957428492309e-12</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-5.656076071052636e-11</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6.599049131519981e-10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.086275858032893e-09</v>
       </c>
     </row>
     <row r="29">
@@ -1004,17 +1003,17 @@
           <t>right_wheel_v</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
-        <v>0.062504455722312</v>
-      </c>
-      <c r="C29" s="4" t="n">
-        <v>-0.07479621949579851</v>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>0.05780540588036509</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>1.742842217403347</v>
+      <c r="B29" t="n">
+        <v>8.755378526843001e-08</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.061265301661752e-07</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.719039717596625e-05</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>0.01996008428841076</v>
       </c>
     </row>
   </sheetData>

--- a/B.xlsx
+++ b/B.xlsx
@@ -491,16 +491,16 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.397244373967012e-10</v>
+        <v>6.236796896606509e-11</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.397240039540603e-10</v>
+        <v>1.352317117787379e-10</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-4.484665166410507e-09</v>
+        <v>2.52885433200074e-09</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-4.484665272289626e-09</v>
+        <v>-8.871129415879855e-09</v>
       </c>
     </row>
     <row r="3">
@@ -510,16 +510,16 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>5.152354549608354e-11</v>
+        <v>1.352322444830524e-10</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-5.15227658703524e-11</v>
+        <v>6.236833623425707e-11</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-8.061005447868466e-09</v>
+        <v>-8.871128625095189e-09</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>8.061006599490805e-09</v>
+        <v>2.528855076463291e-09</v>
       </c>
     </row>
     <row r="4">
@@ -548,16 +548,16 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-8.694586482933575e-10</v>
+        <v>-8.694295182898798e-10</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>8.694270496828558e-10</v>
+        <v>8.69400082546891e-10</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-3.313799289393956e-08</v>
+        <v>-3.313802661667689e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3.313795850420653e-08</v>
+        <v>3.313798571457936e-08</v>
       </c>
     </row>
     <row r="6">
@@ -567,16 +567,16 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-1.876788720034895e-08</v>
+        <v>-1.876790699643002e-08</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-1.876790355867275e-08</v>
+        <v>-1.876788342162414e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-3.652095443572723e-06</v>
+        <v>-3.652095439094759e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-3.652095439708135e-06</v>
+        <v>-3.652095451348261e-06</v>
       </c>
     </row>
     <row r="7">
@@ -586,16 +586,16 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-3.653529806620732e-08</v>
+        <v>-3.657621202889199e-08</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>3.653526512992346e-08</v>
+        <v>3.654057730101874e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-6.708911832358813e-06</v>
+        <v>-6.708925808215793e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>6.708911841012671e-06</v>
+        <v>6.708890173479965e-06</v>
       </c>
     </row>
     <row r="8">
@@ -605,16 +605,16 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>3.999632512954518e-08</v>
+        <v>3.99963251297649e-08</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>8.973640473259707e-13</v>
+        <v>8.97363737133241e-13</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-2.122941812300615e-10</v>
+        <v>-2.12294181165438e-10</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1.751416723100415e-10</v>
+        <v>1.751416719416877e-10</v>
       </c>
     </row>
     <row r="9">
@@ -624,16 +624,16 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-1.963188279622116e-12</v>
+        <v>-1.963187452441503e-12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>4.752045085637512e-13</v>
+        <v>4.752061629249763e-13</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1.543888855475822e-10</v>
+        <v>-1.543888872019434e-10</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1.019253795400607e-10</v>
+        <v>1.019253803672413e-10</v>
       </c>
     </row>
     <row r="10">
@@ -643,16 +643,16 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-1.131215434964353e-13</v>
+        <v>-1.131215241093897e-13</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>6.565901208504511e-15</v>
+        <v>6.565920595550118e-15</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-2.172551718702425e-12</v>
+        <v>-2.172551712240076e-12</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1.319809822891876e-12</v>
+        <v>1.319809842278922e-12</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +662,16 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-2.122530715588456e-10</v>
+        <v>-2.122531149858278e-10</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1.751074454406816e-10</v>
+        <v>1.751075070656373e-10</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>3.9920168576845e-05</v>
+        <v>3.992016857686692e-05</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>3.43807944665698e-08</v>
+        <v>3.438079429741136e-08</v>
       </c>
     </row>
     <row r="12">
@@ -681,16 +681,16 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>8.973641830352899e-13</v>
+        <v>8.973637435955895e-13</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>3.999632512978428e-08</v>
+        <v>3.999632512940301e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.751416721064775e-10</v>
+        <v>1.75141671670269e-10</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-2.122941815305607e-10</v>
+        <v>-2.12294180942487e-10</v>
       </c>
     </row>
     <row r="13">
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>4.752069901055889e-13</v>
+        <v>4.752053357443638e-13</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-1.963189106802728e-12</v>
+        <v>-1.963188279622116e-12</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.019253778856994e-10</v>
+        <v>1.019253803672413e-10</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.543888872019434e-10</v>
+        <v>-1.543888863747628e-10</v>
       </c>
     </row>
     <row r="14">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>6.565914133201582e-15</v>
+        <v>6.565907670853046e-15</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-1.131215241093897e-13</v>
+        <v>-1.131215370340868e-13</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>1.319809829354225e-12</v>
@@ -738,16 +738,16 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.751075707585444e-10</v>
+        <v>1.75107413594228e-10</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-2.122530599783171e-10</v>
+        <v>-2.122530215144186e-10</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>3.438079435200528e-08</v>
+        <v>3.438079430154727e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>3.992016857682142e-05</v>
+        <v>3.99201685768177e-05</v>
       </c>
     </row>
     <row r="16">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.986221869835062e-08</v>
+        <v>3.118398382128806e-08</v>
       </c>
       <c r="C16" t="n">
-        <v>6.986200185791613e-08</v>
+        <v>6.761585682904612e-08</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.242332582702328e-06</v>
+        <v>1.264427166688584e-06</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.242332636912437e-06</v>
+        <v>-4.435564708495793e-06</v>
       </c>
     </row>
     <row r="17">
@@ -776,16 +776,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.576177274804177e-08</v>
+        <v>6.761612279739156e-08</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.57613829351762e-08</v>
+        <v>3.118416847447056e-08</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.030502723934233e-06</v>
+        <v>-4.435564313778439e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>4.030503299745403e-06</v>
+        <v>1.264427539383081e-06</v>
       </c>
     </row>
     <row r="18">
@@ -795,16 +795,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.681275178197381e-08</v>
+        <v>-1.681103389327766e-08</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.681273515895222e-08</v>
+        <v>-1.681105824547489e-08</v>
       </c>
       <c r="D18" t="n">
-        <v>3.417644708441301e-06</v>
+        <v>3.417646401448404e-06</v>
       </c>
       <c r="E18" t="n">
-        <v>3.417644704629653e-06</v>
+        <v>3.41764641394214e-06</v>
       </c>
     </row>
     <row r="19">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4.347257215615812e-07</v>
+        <v>-4.347111524302626e-07</v>
       </c>
       <c r="C19" t="n">
-        <v>4.34709922259578e-07</v>
+        <v>4.346964314627127e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.656833491067373e-05</v>
+        <v>-1.656835177033138e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>1.656831771580636e-05</v>
+        <v>1.65683313246324e-05</v>
       </c>
     </row>
     <row r="20">
@@ -833,16 +833,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-9.38394360047029e-06</v>
+        <v>-9.38395346671006e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>-9.383951759091638e-06</v>
+        <v>-9.383941703116488e-06</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>-0.001826047721776962</v>
+        <v>-0.001826047719527242</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>-0.001826047719852503</v>
+        <v>-0.001826047725693642</v>
       </c>
     </row>
     <row r="21">
@@ -852,16 +852,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1.826764911883692e-05</v>
+        <v>-1.826763955064523e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1.826763265069187e-05</v>
+        <v>1.826763981873161e-05</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>-0.003354455919446954</v>
+        <v>-0.003354455922884504</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>0.00335445592377388</v>
+        <v>0.003354455921257818</v>
       </c>
     </row>
     <row r="22">
@@ -871,16 +871,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.999816256477234e-05</v>
+        <v>1.999816256488319e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>4.486820243221449e-10</v>
+        <v>4.486818688121897e-10</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.061470906154573e-07</v>
+        <v>-1.061470905823701e-07</v>
       </c>
       <c r="E22" t="n">
-        <v>8.757083615415481e-08</v>
+        <v>8.757083597052071e-08</v>
       </c>
     </row>
     <row r="23">
@@ -890,16 +890,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-9.81594295321013e-10</v>
+        <v>-9.815934482880657e-10</v>
       </c>
       <c r="C23" t="n">
-        <v>2.37602059067251e-10</v>
+        <v>2.376033296166719e-10</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.719444293922723e-08</v>
+        <v>-7.71944433627437e-08</v>
       </c>
       <c r="E23" t="n">
-        <v>5.096268976010417e-08</v>
+        <v>5.096269018362064e-08</v>
       </c>
     </row>
     <row r="24">
@@ -909,16 +909,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-5.656077063669371e-11</v>
+        <v>-5.656076071052636e-11</v>
       </c>
       <c r="C24" t="n">
-        <v>3.282950811047409e-12</v>
+        <v>3.282960737214759e-12</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.086275861341616e-09</v>
+        <v>-1.086275858032893e-09</v>
       </c>
       <c r="E24" t="n">
-        <v>6.599049098432757e-10</v>
+        <v>6.59904919769443e-10</v>
       </c>
     </row>
     <row r="25">
@@ -928,16 +928,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.061265356718893e-07</v>
+        <v>-1.061265574829877e-07</v>
       </c>
       <c r="C25" t="n">
-        <v>8.755372279975015e-08</v>
+        <v>8.755375350469449e-08</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>0.01996008428842241</v>
+        <v>0.01996008428843342</v>
       </c>
       <c r="E25" t="n">
-        <v>1.719039723335273e-05</v>
+        <v>1.719039714864943e-05</v>
       </c>
     </row>
     <row r="26">
@@ -947,16 +947,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.486820904965939e-10</v>
+        <v>4.486818721209122e-10</v>
       </c>
       <c r="C26" t="n">
-        <v>1.999816256489311e-05</v>
+        <v>1.999816256470121e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>8.757083605323877e-08</v>
+        <v>8.757083583486309e-08</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.061470907643498e-07</v>
+        <v>-1.061470904715278e-07</v>
       </c>
     </row>
     <row r="27">
@@ -966,16 +966,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.376033296166719e-10</v>
+        <v>2.376024825837247e-10</v>
       </c>
       <c r="C27" t="n">
-        <v>-9.815947188374866e-10</v>
+        <v>-9.81594295321013e-10</v>
       </c>
       <c r="D27" t="n">
-        <v>5.096268891307122e-08</v>
+        <v>5.096269018362064e-08</v>
       </c>
       <c r="E27" t="n">
-        <v>-7.719444378626017e-08</v>
+        <v>-7.71944433627437e-08</v>
       </c>
     </row>
     <row r="28">
@@ -985,10 +985,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.282957428492309e-12</v>
+        <v>3.282954119769859e-12</v>
       </c>
       <c r="C28" t="n">
-        <v>-5.656076071052636e-11</v>
+        <v>-5.656076732797126e-11</v>
       </c>
       <c r="D28" t="n">
         <v>6.599049131519981e-10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.755378526843001e-08</v>
+        <v>8.755370691788239e-08</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.061265301661752e-07</v>
+        <v>-1.061265106844174e-07</v>
       </c>
       <c r="D29" t="n">
-        <v>1.719039717596625e-05</v>
+        <v>1.719039715076702e-05</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>0.01996008428841076</v>
+        <v>0.01996008428840886</v>
       </c>
     </row>
   </sheetData>
